--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1450.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1450.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.623697763395146</v>
+        <v>1.205588221549988</v>
       </c>
       <c r="B1">
-        <v>1.8949022990494</v>
+        <v>2.323080062866211</v>
       </c>
       <c r="C1">
-        <v>2.429706340558055</v>
+        <v>4.672676563262939</v>
       </c>
       <c r="D1">
-        <v>3.256003468041893</v>
+        <v>3.376785755157471</v>
       </c>
       <c r="E1">
-        <v>0.6404710457796795</v>
+        <v>1.177467107772827</v>
       </c>
     </row>
   </sheetData>
